--- a/Core/3.0.0/Electronics/NFC Card Reader Core/PickAndPlace_NFCCoreV300.xlsx
+++ b/Core/3.0.0/Electronics/NFC Card Reader Core/PickAndPlace_NFCCoreV300.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2771" uniqueCount="806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2810" uniqueCount="816">
   <si>
     <t>Designator</t>
   </si>
@@ -1030,10 +1030,13 @@
     <t>R24</t>
   </si>
   <si>
-    <t>76.962mm</t>
-  </si>
-  <si>
-    <t>77.715mm</t>
+    <t>51.308mm</t>
+  </si>
+  <si>
+    <t>61.214mm</t>
+  </si>
+  <si>
+    <t>50.555mm</t>
   </si>
   <si>
     <t>R11</t>
@@ -1336,9 +1339,6 @@
     <t>C72</t>
   </si>
   <si>
-    <t>51.308mm</t>
-  </si>
-  <si>
     <t>81.98mm</t>
   </si>
   <si>
@@ -1699,7 +1699,7 @@
     <t>55.752mm</t>
   </si>
   <si>
-    <t>D4</t>
+    <t>D3</t>
   </si>
   <si>
     <t>PTVS3V3S1UR,115</t>
@@ -1708,15 +1708,6 @@
     <t>SOD-123_L2.8-W1.8-LS3.7-RD</t>
   </si>
   <si>
-    <t>79.629mm</t>
-  </si>
-  <si>
-    <t>28.362mm</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
     <t>25.527mm</t>
   </si>
   <si>
@@ -1741,9 +1732,6 @@
     <t>C91</t>
   </si>
   <si>
-    <t>61.214mm</t>
-  </si>
-  <si>
     <t>C90</t>
   </si>
   <si>
@@ -2383,9 +2371,6 @@
     <t>53.285mm</t>
   </si>
   <si>
-    <t>R48</t>
-  </si>
-  <si>
     <t>H1</t>
   </si>
   <si>
@@ -2429,6 +2414,51 @@
   </si>
   <si>
     <t>53.095mm</t>
+  </si>
+  <si>
+    <t>R56</t>
+  </si>
+  <si>
+    <t>45.72mm</t>
+  </si>
+  <si>
+    <t>64.008mm</t>
+  </si>
+  <si>
+    <t>63.255mm</t>
+  </si>
+  <si>
+    <t>U20</t>
+  </si>
+  <si>
+    <t>51.816mm</t>
+  </si>
+  <si>
+    <t>50.466mm</t>
+  </si>
+  <si>
+    <t>64.958mm</t>
+  </si>
+  <si>
+    <t>C97</t>
+  </si>
+  <si>
+    <t>C98</t>
+  </si>
+  <si>
+    <t>48.133mm</t>
+  </si>
+  <si>
+    <t>47.433mm</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>26.416mm</t>
+  </si>
+  <si>
+    <t>25.466mm</t>
   </si>
 </sst>
 </file>
@@ -2805,7 +2835,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O213"/>
+  <dimension ref="A1:O216"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100"/>
   </sheetViews>
@@ -6679,19 +6709,19 @@
         <v>115</v>
       </c>
       <c r="D83" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="E83" t="s">
+        <v>340</v>
+      </c>
+      <c r="F83" t="s">
         <v>339</v>
       </c>
-      <c r="F83" t="s">
-        <v>322</v>
-      </c>
       <c r="G83" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H83" t="s">
-        <v>322</v>
+        <v>341</v>
       </c>
       <c r="I83" t="s">
         <v>340</v>
@@ -6703,7 +6733,7 @@
         <v>21</v>
       </c>
       <c r="L83">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="M83" t="s">
         <v>22</v>
@@ -6717,7 +6747,7 @@
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B84" t="s">
         <v>302</v>
@@ -6726,22 +6756,22 @@
         <v>115</v>
       </c>
       <c r="D84" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E84" t="s">
         <v>244</v>
       </c>
       <c r="F84" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G84" t="s">
         <v>244</v>
       </c>
       <c r="H84" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I84" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J84">
         <v>2</v>
@@ -6764,31 +6794,31 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B85" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C85" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D85" t="s">
         <v>168</v>
       </c>
       <c r="E85" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F85" t="s">
         <v>168</v>
       </c>
       <c r="G85" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H85" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I85" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="J85">
         <v>5</v>
@@ -6803,7 +6833,7 @@
         <v>22</v>
       </c>
       <c r="N85" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="O85" t="s">
         <v>24</v>
@@ -6811,31 +6841,31 @@
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B86" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C86" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D86" t="s">
         <v>172</v>
       </c>
       <c r="E86" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F86" t="s">
         <v>172</v>
       </c>
       <c r="G86" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H86" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="I86" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J86">
         <v>5</v>
@@ -6850,7 +6880,7 @@
         <v>22</v>
       </c>
       <c r="N86" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="O86" t="s">
         <v>24</v>
@@ -6858,31 +6888,31 @@
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B87" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C87" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D87" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E87" t="s">
+        <v>359</v>
+      </c>
+      <c r="F87" t="s">
         <v>358</v>
       </c>
-      <c r="F87" t="s">
-        <v>357</v>
-      </c>
       <c r="G87" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H87" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I87" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J87">
         <v>8</v>
@@ -6897,7 +6927,7 @@
         <v>22</v>
       </c>
       <c r="N87" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="O87" t="s">
         <v>24</v>
@@ -6905,31 +6935,31 @@
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B88" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C88" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D88" t="s">
         <v>244</v>
       </c>
       <c r="E88" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F88" t="s">
         <v>244</v>
       </c>
       <c r="G88" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H88" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="I88" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="J88">
         <v>8</v>
@@ -6944,7 +6974,7 @@
         <v>22</v>
       </c>
       <c r="N88" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="O88" t="s">
         <v>24</v>
@@ -6952,31 +6982,31 @@
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B89" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C89" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D89" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E89" t="s">
+        <v>370</v>
+      </c>
+      <c r="F89" t="s">
         <v>369</v>
       </c>
-      <c r="F89" t="s">
-        <v>368</v>
-      </c>
       <c r="G89" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H89" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I89" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="J89">
         <v>6</v>
@@ -6991,7 +7021,7 @@
         <v>22</v>
       </c>
       <c r="N89" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O89" t="s">
         <v>24</v>
@@ -6999,31 +7029,31 @@
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B90" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C90" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D90" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E90" t="s">
+        <v>375</v>
+      </c>
+      <c r="F90" t="s">
         <v>374</v>
       </c>
-      <c r="F90" t="s">
-        <v>373</v>
-      </c>
       <c r="G90" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H90" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I90" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="J90">
         <v>6</v>
@@ -7038,7 +7068,7 @@
         <v>22</v>
       </c>
       <c r="N90" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O90" t="s">
         <v>24</v>
@@ -7046,31 +7076,31 @@
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B91" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C91" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D91" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E91" t="s">
+        <v>380</v>
+      </c>
+      <c r="F91" t="s">
         <v>379</v>
       </c>
-      <c r="F91" t="s">
-        <v>378</v>
-      </c>
       <c r="G91" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H91" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I91" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="J91">
         <v>6</v>
@@ -7085,7 +7115,7 @@
         <v>22</v>
       </c>
       <c r="N91" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O91" t="s">
         <v>24</v>
@@ -7093,31 +7123,31 @@
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B92" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C92" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D92" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E92" t="s">
+        <v>385</v>
+      </c>
+      <c r="F92" t="s">
         <v>384</v>
       </c>
-      <c r="F92" t="s">
-        <v>383</v>
-      </c>
       <c r="G92" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H92" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="I92" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="J92">
         <v>6</v>
@@ -7132,7 +7162,7 @@
         <v>22</v>
       </c>
       <c r="N92" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O92" t="s">
         <v>24</v>
@@ -7140,31 +7170,31 @@
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B93" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C93" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D93" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E93" t="s">
+        <v>390</v>
+      </c>
+      <c r="F93" t="s">
         <v>389</v>
       </c>
-      <c r="F93" t="s">
-        <v>388</v>
-      </c>
       <c r="G93" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H93" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="I93" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="J93">
         <v>6</v>
@@ -7179,7 +7209,7 @@
         <v>22</v>
       </c>
       <c r="N93" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O93" t="s">
         <v>24</v>
@@ -7187,31 +7217,31 @@
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B94" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C94" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D94" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E94" t="s">
         <v>244</v>
       </c>
       <c r="F94" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G94" t="s">
         <v>244</v>
       </c>
       <c r="H94" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="I94" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="J94">
         <v>5</v>
@@ -7226,7 +7256,7 @@
         <v>22</v>
       </c>
       <c r="N94" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="O94" t="s">
         <v>24</v>
@@ -7234,31 +7264,31 @@
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B95" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C95" t="s">
         <v>17</v>
       </c>
       <c r="D95" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E95" t="s">
+        <v>400</v>
+      </c>
+      <c r="F95" t="s">
         <v>399</v>
       </c>
-      <c r="F95" t="s">
-        <v>398</v>
-      </c>
       <c r="G95" t="s">
+        <v>400</v>
+      </c>
+      <c r="H95" t="s">
         <v>399</v>
       </c>
-      <c r="H95" t="s">
-        <v>398</v>
-      </c>
       <c r="I95" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="J95">
         <v>2</v>
@@ -7273,7 +7303,7 @@
         <v>22</v>
       </c>
       <c r="N95" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="O95" t="s">
         <v>24</v>
@@ -7281,10 +7311,10 @@
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B96" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C96" t="s">
         <v>17</v>
@@ -7293,19 +7323,19 @@
         <v>212</v>
       </c>
       <c r="E96" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F96" t="s">
         <v>212</v>
       </c>
       <c r="G96" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H96" t="s">
+        <v>405</v>
+      </c>
+      <c r="I96" t="s">
         <v>404</v>
-      </c>
-      <c r="I96" t="s">
-        <v>403</v>
       </c>
       <c r="J96">
         <v>2</v>
@@ -7320,7 +7350,7 @@
         <v>22</v>
       </c>
       <c r="N96" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="O96" t="s">
         <v>24</v>
@@ -7328,31 +7358,31 @@
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B97" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C97" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D97" t="s">
         <v>212</v>
       </c>
       <c r="E97" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F97" t="s">
         <v>212</v>
       </c>
       <c r="G97" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H97" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="I97" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="J97">
         <v>4</v>
@@ -7367,7 +7397,7 @@
         <v>22</v>
       </c>
       <c r="N97" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="O97" t="s">
         <v>24</v>
@@ -7375,31 +7405,31 @@
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B98" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C98" t="s">
         <v>115</v>
       </c>
       <c r="D98" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E98" t="s">
+        <v>416</v>
+      </c>
+      <c r="F98" t="s">
         <v>415</v>
       </c>
-      <c r="F98" t="s">
-        <v>414</v>
-      </c>
       <c r="G98" t="s">
+        <v>416</v>
+      </c>
+      <c r="H98" t="s">
         <v>415</v>
       </c>
-      <c r="H98" t="s">
-        <v>414</v>
-      </c>
       <c r="I98" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="J98">
         <v>2</v>
@@ -7414,7 +7444,7 @@
         <v>22</v>
       </c>
       <c r="N98" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="O98" t="s">
         <v>24</v>
@@ -7422,7 +7452,7 @@
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B99" t="s">
         <v>71</v>
@@ -7434,19 +7464,19 @@
         <v>321</v>
       </c>
       <c r="E99" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F99" t="s">
         <v>321</v>
       </c>
       <c r="G99" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H99" t="s">
         <v>321</v>
       </c>
       <c r="I99" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="J99">
         <v>2</v>
@@ -7469,7 +7499,7 @@
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B100" t="s">
         <v>71</v>
@@ -7481,19 +7511,19 @@
         <v>221</v>
       </c>
       <c r="E100" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F100" t="s">
         <v>221</v>
       </c>
       <c r="G100" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H100" t="s">
         <v>221</v>
       </c>
       <c r="I100" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="J100">
         <v>2</v>
@@ -7516,7 +7546,7 @@
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B101" t="s">
         <v>71</v>
@@ -7525,22 +7555,22 @@
         <v>17</v>
       </c>
       <c r="D101" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E101" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F101" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G101" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H101" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="I101" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="J101">
         <v>2</v>
@@ -7563,7 +7593,7 @@
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B102" t="s">
         <v>128</v>
@@ -7572,22 +7602,22 @@
         <v>115</v>
       </c>
       <c r="D102" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E102" t="s">
+        <v>427</v>
+      </c>
+      <c r="F102" t="s">
         <v>426</v>
       </c>
-      <c r="F102" t="s">
-        <v>425</v>
-      </c>
       <c r="G102" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H102" t="s">
+        <v>428</v>
+      </c>
+      <c r="I102" t="s">
         <v>427</v>
-      </c>
-      <c r="I102" t="s">
-        <v>426</v>
       </c>
       <c r="J102">
         <v>2</v>
@@ -7610,7 +7640,7 @@
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B103" t="s">
         <v>128</v>
@@ -7619,22 +7649,22 @@
         <v>115</v>
       </c>
       <c r="D103" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E103" t="s">
+        <v>431</v>
+      </c>
+      <c r="F103" t="s">
         <v>430</v>
       </c>
-      <c r="F103" t="s">
-        <v>429</v>
-      </c>
       <c r="G103" t="s">
+        <v>431</v>
+      </c>
+      <c r="H103" t="s">
         <v>430</v>
       </c>
-      <c r="H103" t="s">
-        <v>429</v>
-      </c>
       <c r="I103" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="J103">
         <v>2</v>
@@ -7657,7 +7687,7 @@
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B104" t="s">
         <v>71</v>
@@ -7666,22 +7696,22 @@
         <v>17</v>
       </c>
       <c r="D104" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E104" t="s">
+        <v>435</v>
+      </c>
+      <c r="F104" t="s">
         <v>434</v>
       </c>
-      <c r="F104" t="s">
-        <v>433</v>
-      </c>
       <c r="G104" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H104" t="s">
+        <v>436</v>
+      </c>
+      <c r="I104" t="s">
         <v>435</v>
-      </c>
-      <c r="I104" t="s">
-        <v>434</v>
       </c>
       <c r="J104">
         <v>2</v>
@@ -7704,7 +7734,7 @@
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B105" t="s">
         <v>71</v>
@@ -7713,22 +7743,22 @@
         <v>17</v>
       </c>
       <c r="D105" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E105" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F105" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G105" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H105" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="I105" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="J105">
         <v>2</v>
@@ -7751,7 +7781,7 @@
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B106" t="s">
         <v>71</v>
@@ -7760,22 +7790,22 @@
         <v>17</v>
       </c>
       <c r="D106" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E106" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F106" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G106" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H106" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="I106" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="J106">
         <v>2</v>
@@ -7798,7 +7828,7 @@
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B107" t="s">
         <v>180</v>
@@ -7810,19 +7840,19 @@
         <v>259</v>
       </c>
       <c r="E107" t="s">
-        <v>441</v>
+        <v>339</v>
       </c>
       <c r="F107" t="s">
         <v>259</v>
       </c>
       <c r="G107" t="s">
-        <v>441</v>
+        <v>339</v>
       </c>
       <c r="H107" t="s">
         <v>442</v>
       </c>
       <c r="I107" t="s">
-        <v>441</v>
+        <v>339</v>
       </c>
       <c r="J107">
         <v>2</v>
@@ -7854,19 +7884,19 @@
         <v>17</v>
       </c>
       <c r="D108" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E108" t="s">
         <v>444</v>
       </c>
       <c r="F108" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G108" t="s">
         <v>444</v>
       </c>
       <c r="H108" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="I108" t="s">
         <v>444</v>
@@ -7951,13 +7981,13 @@
         <v>449</v>
       </c>
       <c r="E110" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F110" t="s">
         <v>449</v>
       </c>
       <c r="G110" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H110" t="s">
         <v>449</v>
@@ -7989,7 +8019,7 @@
         <v>452</v>
       </c>
       <c r="B111" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C111" t="s">
         <v>115</v>
@@ -7998,19 +8028,19 @@
         <v>453</v>
       </c>
       <c r="E111" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F111" t="s">
         <v>453</v>
       </c>
       <c r="G111" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H111" t="s">
         <v>453</v>
       </c>
       <c r="I111" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="J111">
         <v>2</v>
@@ -8025,7 +8055,7 @@
         <v>22</v>
       </c>
       <c r="N111" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="O111" t="s">
         <v>24</v>
@@ -8045,13 +8075,13 @@
         <v>455</v>
       </c>
       <c r="E112" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F112" t="s">
         <v>455</v>
       </c>
       <c r="G112" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H112" t="s">
         <v>455</v>
@@ -8089,19 +8119,19 @@
         <v>17</v>
       </c>
       <c r="D113" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E113" t="s">
         <v>457</v>
       </c>
       <c r="F113" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G113" t="s">
         <v>457</v>
       </c>
       <c r="H113" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="I113" t="s">
         <v>457</v>
@@ -8136,19 +8166,19 @@
         <v>17</v>
       </c>
       <c r="D114" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E114" t="s">
         <v>460</v>
       </c>
       <c r="F114" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G114" t="s">
         <v>460</v>
       </c>
       <c r="H114" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="I114" t="s">
         <v>460</v>
@@ -8177,7 +8207,7 @@
         <v>462</v>
       </c>
       <c r="B115" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C115" t="s">
         <v>115</v>
@@ -8186,19 +8216,19 @@
         <v>212</v>
       </c>
       <c r="E115" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F115" t="s">
         <v>212</v>
       </c>
       <c r="G115" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H115" t="s">
         <v>212</v>
       </c>
       <c r="I115" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="J115">
         <v>2</v>
@@ -8213,7 +8243,7 @@
         <v>22</v>
       </c>
       <c r="N115" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="O115" t="s">
         <v>24</v>
@@ -8233,19 +8263,19 @@
         <v>465</v>
       </c>
       <c r="E116" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F116" t="s">
         <v>465</v>
       </c>
       <c r="G116" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H116" t="s">
         <v>465</v>
       </c>
       <c r="I116" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="J116">
         <v>2</v>
@@ -8271,7 +8301,7 @@
         <v>467</v>
       </c>
       <c r="B117" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C117" t="s">
         <v>115</v>
@@ -8280,19 +8310,19 @@
         <v>225</v>
       </c>
       <c r="E117" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F117" t="s">
         <v>225</v>
       </c>
       <c r="G117" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H117" t="s">
         <v>225</v>
       </c>
       <c r="I117" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="J117">
         <v>2</v>
@@ -8307,7 +8337,7 @@
         <v>22</v>
       </c>
       <c r="N117" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="O117" t="s">
         <v>24</v>
@@ -8603,7 +8633,7 @@
         <v>494</v>
       </c>
       <c r="C124" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D124" t="s">
         <v>495</v>
@@ -8656,13 +8686,13 @@
         <v>501</v>
       </c>
       <c r="E125" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F125" t="s">
         <v>501</v>
       </c>
       <c r="G125" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H125" t="s">
         <v>501</v>
@@ -8844,13 +8874,13 @@
         <v>274</v>
       </c>
       <c r="E129" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F129" t="s">
         <v>274</v>
       </c>
       <c r="G129" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H129" t="s">
         <v>274</v>
@@ -9032,13 +9062,13 @@
         <v>326</v>
       </c>
       <c r="E133" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F133" t="s">
         <v>326</v>
       </c>
       <c r="G133" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H133" t="s">
         <v>326</v>
@@ -9123,13 +9153,13 @@
         <v>115</v>
       </c>
       <c r="D135" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E135" t="s">
         <v>535</v>
       </c>
       <c r="F135" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G135" t="s">
         <v>535</v>
@@ -9399,10 +9429,10 @@
         <v>553</v>
       </c>
       <c r="B141" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C141" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D141" t="s">
         <v>221</v>
@@ -9435,7 +9465,7 @@
         <v>22</v>
       </c>
       <c r="N141" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O141" t="s">
         <v>24</v>
@@ -9499,22 +9529,22 @@
         <v>564</v>
       </c>
       <c r="D143" t="s">
-        <v>331</v>
+        <v>565</v>
       </c>
       <c r="E143" t="s">
+        <v>566</v>
+      </c>
+      <c r="F143" t="s">
         <v>565</v>
       </c>
-      <c r="F143" t="s">
-        <v>331</v>
-      </c>
       <c r="G143" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H143" t="s">
+        <v>567</v>
+      </c>
+      <c r="I143" t="s">
         <v>566</v>
-      </c>
-      <c r="I143" t="s">
-        <v>565</v>
       </c>
       <c r="J143">
         <v>2</v>
@@ -9537,32 +9567,32 @@
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B144" t="s">
-        <v>563</v>
+        <v>180</v>
       </c>
       <c r="C144" t="s">
-        <v>564</v>
+        <v>17</v>
       </c>
       <c r="D144" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E144" t="s">
+        <v>570</v>
+      </c>
+      <c r="F144" t="s">
         <v>569</v>
       </c>
-      <c r="F144" t="s">
-        <v>568</v>
-      </c>
       <c r="G144" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H144" t="s">
+        <v>571</v>
+      </c>
+      <c r="I144" t="s">
         <v>570</v>
       </c>
-      <c r="I144" t="s">
-        <v>569</v>
-      </c>
       <c r="J144">
         <v>2</v>
       </c>
@@ -9570,13 +9600,13 @@
         <v>21</v>
       </c>
       <c r="L144">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="M144" t="s">
         <v>22</v>
       </c>
       <c r="N144" t="s">
-        <v>563</v>
+        <v>183</v>
       </c>
       <c r="O144" t="s">
         <v>24</v>
@@ -9584,7 +9614,7 @@
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B145" t="s">
         <v>180</v>
@@ -9593,22 +9623,22 @@
         <v>17</v>
       </c>
       <c r="D145" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="E145" t="s">
-        <v>573</v>
+        <v>340</v>
       </c>
       <c r="F145" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="G145" t="s">
-        <v>573</v>
+        <v>340</v>
       </c>
       <c r="H145" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="I145" t="s">
-        <v>573</v>
+        <v>340</v>
       </c>
       <c r="J145">
         <v>2</v>
@@ -9631,31 +9661,31 @@
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B146" t="s">
-        <v>180</v>
+        <v>55</v>
       </c>
       <c r="C146" t="s">
         <v>17</v>
       </c>
       <c r="D146" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="E146" t="s">
+        <v>575</v>
+      </c>
+      <c r="F146" t="s">
+        <v>574</v>
+      </c>
+      <c r="G146" t="s">
+        <v>575</v>
+      </c>
+      <c r="H146" t="s">
         <v>576</v>
       </c>
-      <c r="F146" t="s">
-        <v>572</v>
-      </c>
-      <c r="G146" t="s">
-        <v>576</v>
-      </c>
-      <c r="H146" t="s">
-        <v>574</v>
-      </c>
       <c r="I146" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="J146">
         <v>2</v>
@@ -9670,7 +9700,7 @@
         <v>22</v>
       </c>
       <c r="N146" t="s">
-        <v>183</v>
+        <v>59</v>
       </c>
       <c r="O146" t="s">
         <v>24</v>
@@ -9681,28 +9711,28 @@
         <v>577</v>
       </c>
       <c r="B147" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C147" t="s">
         <v>17</v>
       </c>
       <c r="D147" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="E147" t="s">
-        <v>579</v>
+        <v>389</v>
       </c>
       <c r="F147" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="G147" t="s">
-        <v>579</v>
+        <v>389</v>
       </c>
       <c r="H147" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="I147" t="s">
-        <v>579</v>
+        <v>389</v>
       </c>
       <c r="J147">
         <v>2</v>
@@ -9717,7 +9747,7 @@
         <v>22</v>
       </c>
       <c r="N147" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="O147" t="s">
         <v>24</v>
@@ -9725,32 +9755,32 @@
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
+        <v>578</v>
+      </c>
+      <c r="B148" t="s">
+        <v>333</v>
+      </c>
+      <c r="C148" t="s">
+        <v>115</v>
+      </c>
+      <c r="D148" t="s">
+        <v>579</v>
+      </c>
+      <c r="E148" t="s">
+        <v>580</v>
+      </c>
+      <c r="F148" t="s">
+        <v>579</v>
+      </c>
+      <c r="G148" t="s">
+        <v>580</v>
+      </c>
+      <c r="H148" t="s">
+        <v>579</v>
+      </c>
+      <c r="I148" t="s">
         <v>581</v>
       </c>
-      <c r="B148" t="s">
-        <v>71</v>
-      </c>
-      <c r="C148" t="s">
-        <v>17</v>
-      </c>
-      <c r="D148" t="s">
-        <v>572</v>
-      </c>
-      <c r="E148" t="s">
-        <v>388</v>
-      </c>
-      <c r="F148" t="s">
-        <v>572</v>
-      </c>
-      <c r="G148" t="s">
-        <v>388</v>
-      </c>
-      <c r="H148" t="s">
-        <v>574</v>
-      </c>
-      <c r="I148" t="s">
-        <v>388</v>
-      </c>
       <c r="J148">
         <v>2</v>
       </c>
@@ -9758,13 +9788,13 @@
         <v>21</v>
       </c>
       <c r="L148">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M148" t="s">
         <v>22</v>
       </c>
       <c r="N148" t="s">
-        <v>75</v>
+        <v>337</v>
       </c>
       <c r="O148" t="s">
         <v>24</v>
@@ -9784,19 +9814,19 @@
         <v>583</v>
       </c>
       <c r="E149" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="F149" t="s">
         <v>583</v>
       </c>
       <c r="G149" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="H149" t="s">
         <v>583</v>
       </c>
       <c r="I149" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="J149">
         <v>2</v>
@@ -9819,31 +9849,31 @@
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B150" t="s">
-        <v>333</v>
+        <v>134</v>
       </c>
       <c r="C150" t="s">
         <v>115</v>
       </c>
       <c r="D150" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E150" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="F150" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="G150" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="H150" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I150" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="J150">
         <v>2</v>
@@ -9852,13 +9882,13 @@
         <v>21</v>
       </c>
       <c r="L150">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M150" t="s">
         <v>22</v>
       </c>
       <c r="N150" t="s">
-        <v>337</v>
+        <v>138</v>
       </c>
       <c r="O150" t="s">
         <v>24</v>
@@ -9866,31 +9896,31 @@
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
+        <v>587</v>
+      </c>
+      <c r="B151" t="s">
+        <v>180</v>
+      </c>
+      <c r="C151" t="s">
+        <v>17</v>
+      </c>
+      <c r="D151" t="s">
         <v>588</v>
       </c>
-      <c r="B151" t="s">
-        <v>134</v>
-      </c>
-      <c r="C151" t="s">
-        <v>115</v>
-      </c>
-      <c r="D151" t="s">
-        <v>589</v>
-      </c>
       <c r="E151" t="s">
-        <v>579</v>
+        <v>209</v>
       </c>
       <c r="F151" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G151" t="s">
-        <v>579</v>
+        <v>209</v>
       </c>
       <c r="H151" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="I151" t="s">
-        <v>579</v>
+        <v>210</v>
       </c>
       <c r="J151">
         <v>2</v>
@@ -9899,13 +9929,13 @@
         <v>21</v>
       </c>
       <c r="L151">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M151" t="s">
         <v>22</v>
       </c>
       <c r="N151" t="s">
-        <v>138</v>
+        <v>183</v>
       </c>
       <c r="O151" t="s">
         <v>24</v>
@@ -9913,7 +9943,7 @@
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B152" t="s">
         <v>180</v>
@@ -9922,19 +9952,19 @@
         <v>17</v>
       </c>
       <c r="D152" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E152" t="s">
         <v>209</v>
       </c>
       <c r="F152" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="G152" t="s">
         <v>209</v>
       </c>
       <c r="H152" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="I152" t="s">
         <v>210</v>
@@ -9960,31 +9990,31 @@
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B153" t="s">
-        <v>180</v>
+        <v>71</v>
       </c>
       <c r="C153" t="s">
         <v>17</v>
       </c>
       <c r="D153" t="s">
-        <v>594</v>
+        <v>250</v>
       </c>
       <c r="E153" t="s">
-        <v>209</v>
+        <v>592</v>
       </c>
       <c r="F153" t="s">
-        <v>594</v>
+        <v>250</v>
       </c>
       <c r="G153" t="s">
-        <v>209</v>
+        <v>592</v>
       </c>
       <c r="H153" t="s">
-        <v>594</v>
+        <v>250</v>
       </c>
       <c r="I153" t="s">
-        <v>210</v>
+        <v>593</v>
       </c>
       <c r="J153">
         <v>2</v>
@@ -9999,7 +10029,7 @@
         <v>22</v>
       </c>
       <c r="N153" t="s">
-        <v>183</v>
+        <v>75</v>
       </c>
       <c r="O153" t="s">
         <v>24</v>
@@ -10007,7 +10037,7 @@
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B154" t="s">
         <v>71</v>
@@ -10016,22 +10046,22 @@
         <v>17</v>
       </c>
       <c r="D154" t="s">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="E154" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="F154" t="s">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="G154" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="H154" t="s">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="I154" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="J154">
         <v>2</v>
@@ -10054,7 +10084,7 @@
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B155" t="s">
         <v>71</v>
@@ -10063,22 +10093,22 @@
         <v>17</v>
       </c>
       <c r="D155" t="s">
-        <v>429</v>
+        <v>596</v>
       </c>
       <c r="E155" t="s">
+        <v>597</v>
+      </c>
+      <c r="F155" t="s">
         <v>596</v>
       </c>
-      <c r="F155" t="s">
-        <v>429</v>
-      </c>
       <c r="G155" t="s">
+        <v>597</v>
+      </c>
+      <c r="H155" t="s">
         <v>596</v>
       </c>
-      <c r="H155" t="s">
-        <v>429</v>
-      </c>
       <c r="I155" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="J155">
         <v>2</v>
@@ -10087,7 +10117,7 @@
         <v>21</v>
       </c>
       <c r="L155">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="M155" t="s">
         <v>22</v>
@@ -10157,22 +10187,22 @@
         <v>17</v>
       </c>
       <c r="D157" t="s">
-        <v>604</v>
+        <v>554</v>
       </c>
       <c r="E157" t="s">
-        <v>605</v>
+        <v>343</v>
       </c>
       <c r="F157" t="s">
-        <v>604</v>
+        <v>554</v>
       </c>
       <c r="G157" t="s">
-        <v>605</v>
+        <v>343</v>
       </c>
       <c r="H157" t="s">
         <v>604</v>
       </c>
       <c r="I157" t="s">
-        <v>606</v>
+        <v>343</v>
       </c>
       <c r="J157">
         <v>2</v>
@@ -10181,7 +10211,7 @@
         <v>21</v>
       </c>
       <c r="L157">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="M157" t="s">
         <v>22</v>
@@ -10195,7 +10225,7 @@
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B158" t="s">
         <v>71</v>
@@ -10204,22 +10234,22 @@
         <v>17</v>
       </c>
       <c r="D158" t="s">
-        <v>554</v>
+        <v>219</v>
       </c>
       <c r="E158" t="s">
-        <v>342</v>
+        <v>580</v>
       </c>
       <c r="F158" t="s">
-        <v>554</v>
+        <v>219</v>
       </c>
       <c r="G158" t="s">
-        <v>342</v>
+        <v>580</v>
       </c>
       <c r="H158" t="s">
-        <v>608</v>
+        <v>219</v>
       </c>
       <c r="I158" t="s">
-        <v>342</v>
+        <v>606</v>
       </c>
       <c r="J158">
         <v>2</v>
@@ -10228,7 +10258,7 @@
         <v>21</v>
       </c>
       <c r="L158">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="M158" t="s">
         <v>22</v>
@@ -10242,7 +10272,7 @@
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B159" t="s">
         <v>71</v>
@@ -10251,22 +10281,22 @@
         <v>17</v>
       </c>
       <c r="D159" t="s">
-        <v>219</v>
+        <v>426</v>
       </c>
       <c r="E159" t="s">
-        <v>584</v>
+        <v>169</v>
       </c>
       <c r="F159" t="s">
-        <v>219</v>
+        <v>426</v>
       </c>
       <c r="G159" t="s">
-        <v>584</v>
+        <v>169</v>
       </c>
       <c r="H159" t="s">
-        <v>219</v>
+        <v>426</v>
       </c>
       <c r="I159" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="J159">
         <v>2</v>
@@ -10289,7 +10319,7 @@
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B160" t="s">
         <v>71</v>
@@ -10298,22 +10328,22 @@
         <v>17</v>
       </c>
       <c r="D160" t="s">
-        <v>425</v>
+        <v>610</v>
       </c>
       <c r="E160" t="s">
-        <v>169</v>
+        <v>446</v>
       </c>
       <c r="F160" t="s">
-        <v>425</v>
+        <v>610</v>
       </c>
       <c r="G160" t="s">
-        <v>169</v>
+        <v>446</v>
       </c>
       <c r="H160" t="s">
-        <v>425</v>
+        <v>611</v>
       </c>
       <c r="I160" t="s">
-        <v>612</v>
+        <v>446</v>
       </c>
       <c r="J160">
         <v>2</v>
@@ -10322,7 +10352,7 @@
         <v>21</v>
       </c>
       <c r="L160">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="M160" t="s">
         <v>22</v>
@@ -10336,7 +10366,7 @@
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B161" t="s">
         <v>71</v>
@@ -10345,23 +10375,23 @@
         <v>17</v>
       </c>
       <c r="D161" t="s">
+        <v>400</v>
+      </c>
+      <c r="E161" t="s">
+        <v>613</v>
+      </c>
+      <c r="F161" t="s">
+        <v>400</v>
+      </c>
+      <c r="G161" t="s">
+        <v>613</v>
+      </c>
+      <c r="H161" t="s">
+        <v>400</v>
+      </c>
+      <c r="I161" t="s">
         <v>614</v>
       </c>
-      <c r="E161" t="s">
-        <v>446</v>
-      </c>
-      <c r="F161" t="s">
-        <v>614</v>
-      </c>
-      <c r="G161" t="s">
-        <v>446</v>
-      </c>
-      <c r="H161" t="s">
-        <v>615</v>
-      </c>
-      <c r="I161" t="s">
-        <v>446</v>
-      </c>
       <c r="J161">
         <v>2</v>
       </c>
@@ -10369,7 +10399,7 @@
         <v>21</v>
       </c>
       <c r="L161">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="M161" t="s">
         <v>22</v>
@@ -10383,7 +10413,7 @@
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B162" t="s">
         <v>71</v>
@@ -10392,22 +10422,22 @@
         <v>17</v>
       </c>
       <c r="D162" t="s">
-        <v>399</v>
+        <v>616</v>
       </c>
       <c r="E162" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="F162" t="s">
-        <v>399</v>
+        <v>616</v>
       </c>
       <c r="G162" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H162" t="s">
-        <v>399</v>
+        <v>616</v>
       </c>
       <c r="I162" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="J162">
         <v>2</v>
@@ -10430,28 +10460,28 @@
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
+        <v>617</v>
+      </c>
+      <c r="B163" t="s">
+        <v>134</v>
+      </c>
+      <c r="C163" t="s">
+        <v>115</v>
+      </c>
+      <c r="D163" t="s">
+        <v>384</v>
+      </c>
+      <c r="E163" t="s">
+        <v>618</v>
+      </c>
+      <c r="F163" t="s">
+        <v>384</v>
+      </c>
+      <c r="G163" t="s">
+        <v>618</v>
+      </c>
+      <c r="H163" t="s">
         <v>619</v>
-      </c>
-      <c r="B163" t="s">
-        <v>71</v>
-      </c>
-      <c r="C163" t="s">
-        <v>17</v>
-      </c>
-      <c r="D163" t="s">
-        <v>620</v>
-      </c>
-      <c r="E163" t="s">
-        <v>617</v>
-      </c>
-      <c r="F163" t="s">
-        <v>620</v>
-      </c>
-      <c r="G163" t="s">
-        <v>617</v>
-      </c>
-      <c r="H163" t="s">
-        <v>620</v>
       </c>
       <c r="I163" t="s">
         <v>618</v>
@@ -10463,13 +10493,13 @@
         <v>21</v>
       </c>
       <c r="L163">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="M163" t="s">
         <v>22</v>
       </c>
       <c r="N163" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="O163" t="s">
         <v>24</v>
@@ -10477,7 +10507,7 @@
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B164" t="s">
         <v>134</v>
@@ -10486,19 +10516,19 @@
         <v>115</v>
       </c>
       <c r="D164" t="s">
-        <v>383</v>
+        <v>621</v>
       </c>
       <c r="E164" t="s">
-        <v>622</v>
+        <v>253</v>
       </c>
       <c r="F164" t="s">
-        <v>383</v>
+        <v>621</v>
       </c>
       <c r="G164" t="s">
-        <v>622</v>
+        <v>253</v>
       </c>
       <c r="H164" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="I164" t="s">
         <v>622</v>
@@ -10510,7 +10540,7 @@
         <v>21</v>
       </c>
       <c r="L164">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="M164" t="s">
         <v>22</v>
@@ -10524,7 +10554,7 @@
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B165" t="s">
         <v>134</v>
@@ -10533,22 +10563,22 @@
         <v>115</v>
       </c>
       <c r="D165" t="s">
-        <v>625</v>
+        <v>370</v>
       </c>
       <c r="E165" t="s">
-        <v>253</v>
+        <v>169</v>
       </c>
       <c r="F165" t="s">
-        <v>625</v>
+        <v>370</v>
       </c>
       <c r="G165" t="s">
-        <v>253</v>
+        <v>169</v>
       </c>
       <c r="H165" t="s">
-        <v>625</v>
+        <v>370</v>
       </c>
       <c r="I165" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="J165">
         <v>2</v>
@@ -10557,7 +10587,7 @@
         <v>21</v>
       </c>
       <c r="L165">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="M165" t="s">
         <v>22</v>
@@ -10571,7 +10601,7 @@
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B166" t="s">
         <v>134</v>
@@ -10580,22 +10610,22 @@
         <v>115</v>
       </c>
       <c r="D166" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="E166" t="s">
-        <v>169</v>
+        <v>626</v>
       </c>
       <c r="F166" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="G166" t="s">
-        <v>169</v>
+        <v>626</v>
       </c>
       <c r="H166" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="I166" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J166">
         <v>2</v>
@@ -10618,31 +10648,31 @@
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B167" t="s">
-        <v>134</v>
+        <v>333</v>
       </c>
       <c r="C167" t="s">
         <v>115</v>
       </c>
       <c r="D167" t="s">
-        <v>351</v>
+        <v>629</v>
       </c>
       <c r="E167" t="s">
+        <v>601</v>
+      </c>
+      <c r="F167" t="s">
+        <v>629</v>
+      </c>
+      <c r="G167" t="s">
+        <v>601</v>
+      </c>
+      <c r="H167" t="s">
+        <v>629</v>
+      </c>
+      <c r="I167" t="s">
         <v>630</v>
-      </c>
-      <c r="F167" t="s">
-        <v>351</v>
-      </c>
-      <c r="G167" t="s">
-        <v>630</v>
-      </c>
-      <c r="H167" t="s">
-        <v>351</v>
-      </c>
-      <c r="I167" t="s">
-        <v>631</v>
       </c>
       <c r="J167">
         <v>2</v>
@@ -10657,7 +10687,7 @@
         <v>22</v>
       </c>
       <c r="N167" t="s">
-        <v>138</v>
+        <v>337</v>
       </c>
       <c r="O167" t="s">
         <v>24</v>
@@ -10665,7 +10695,7 @@
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B168" t="s">
         <v>333</v>
@@ -10674,22 +10704,22 @@
         <v>115</v>
       </c>
       <c r="D168" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E168" t="s">
-        <v>605</v>
+        <v>438</v>
       </c>
       <c r="F168" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G168" t="s">
-        <v>605</v>
+        <v>438</v>
       </c>
       <c r="H168" t="s">
         <v>633</v>
       </c>
       <c r="I168" t="s">
-        <v>634</v>
+        <v>438</v>
       </c>
       <c r="J168">
         <v>2</v>
@@ -10698,7 +10728,7 @@
         <v>21</v>
       </c>
       <c r="L168">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="M168" t="s">
         <v>22</v>
@@ -10712,7 +10742,7 @@
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B169" t="s">
         <v>333</v>
@@ -10721,22 +10751,22 @@
         <v>115</v>
       </c>
       <c r="D169" t="s">
-        <v>636</v>
+        <v>415</v>
       </c>
       <c r="E169" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="F169" t="s">
-        <v>636</v>
+        <v>415</v>
       </c>
       <c r="G169" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="H169" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="I169" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="J169">
         <v>2</v>
@@ -10745,7 +10775,7 @@
         <v>21</v>
       </c>
       <c r="L169">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="M169" t="s">
         <v>22</v>
@@ -10759,7 +10789,7 @@
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B170" t="s">
         <v>333</v>
@@ -10768,22 +10798,22 @@
         <v>115</v>
       </c>
       <c r="D170" t="s">
-        <v>414</v>
+        <v>637</v>
       </c>
       <c r="E170" t="s">
-        <v>446</v>
+        <v>638</v>
       </c>
       <c r="F170" t="s">
-        <v>414</v>
+        <v>637</v>
       </c>
       <c r="G170" t="s">
-        <v>446</v>
+        <v>638</v>
       </c>
       <c r="H170" t="s">
         <v>639</v>
       </c>
       <c r="I170" t="s">
-        <v>446</v>
+        <v>638</v>
       </c>
       <c r="J170">
         <v>2</v>
@@ -10809,29 +10839,29 @@
         <v>640</v>
       </c>
       <c r="B171" t="s">
-        <v>333</v>
+        <v>641</v>
       </c>
       <c r="C171" t="s">
-        <v>115</v>
+        <v>642</v>
       </c>
       <c r="D171" t="s">
-        <v>641</v>
+        <v>188</v>
       </c>
       <c r="E171" t="s">
-        <v>642</v>
+        <v>168</v>
       </c>
       <c r="F171" t="s">
-        <v>641</v>
+        <v>188</v>
       </c>
       <c r="G171" t="s">
-        <v>642</v>
+        <v>168</v>
       </c>
       <c r="H171" t="s">
+        <v>188</v>
+      </c>
+      <c r="I171" t="s">
         <v>643</v>
       </c>
-      <c r="I171" t="s">
-        <v>642</v>
-      </c>
       <c r="J171">
         <v>2</v>
       </c>
@@ -10839,13 +10869,13 @@
         <v>21</v>
       </c>
       <c r="L171">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="M171" t="s">
         <v>22</v>
       </c>
       <c r="N171" t="s">
-        <v>337</v>
+        <v>644</v>
       </c>
       <c r="O171" t="s">
         <v>24</v>
@@ -10853,28 +10883,28 @@
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B172" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="C172" t="s">
+        <v>642</v>
+      </c>
+      <c r="D172" t="s">
+        <v>221</v>
+      </c>
+      <c r="E172" t="s">
         <v>646</v>
       </c>
-      <c r="D172" t="s">
-        <v>188</v>
-      </c>
-      <c r="E172" t="s">
-        <v>168</v>
-      </c>
       <c r="F172" t="s">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="G172" t="s">
-        <v>168</v>
+        <v>646</v>
       </c>
       <c r="H172" t="s">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="I172" t="s">
         <v>647</v>
@@ -10886,13 +10916,13 @@
         <v>21</v>
       </c>
       <c r="L172">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="M172" t="s">
         <v>22</v>
       </c>
       <c r="N172" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="O172" t="s">
         <v>24</v>
@@ -10900,32 +10930,32 @@
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
+        <v>648</v>
+      </c>
+      <c r="B173" t="s">
+        <v>71</v>
+      </c>
+      <c r="C173" t="s">
+        <v>17</v>
+      </c>
+      <c r="D173" t="s">
+        <v>213</v>
+      </c>
+      <c r="E173" t="s">
+        <v>109</v>
+      </c>
+      <c r="F173" t="s">
+        <v>213</v>
+      </c>
+      <c r="G173" t="s">
+        <v>109</v>
+      </c>
+      <c r="H173" t="s">
+        <v>213</v>
+      </c>
+      <c r="I173" t="s">
         <v>649</v>
       </c>
-      <c r="B173" t="s">
-        <v>645</v>
-      </c>
-      <c r="C173" t="s">
-        <v>646</v>
-      </c>
-      <c r="D173" t="s">
-        <v>221</v>
-      </c>
-      <c r="E173" t="s">
-        <v>650</v>
-      </c>
-      <c r="F173" t="s">
-        <v>221</v>
-      </c>
-      <c r="G173" t="s">
-        <v>650</v>
-      </c>
-      <c r="H173" t="s">
-        <v>221</v>
-      </c>
-      <c r="I173" t="s">
-        <v>651</v>
-      </c>
       <c r="J173">
         <v>2</v>
       </c>
@@ -10933,13 +10963,13 @@
         <v>21</v>
       </c>
       <c r="L173">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="M173" t="s">
         <v>22</v>
       </c>
       <c r="N173" t="s">
-        <v>648</v>
+        <v>75</v>
       </c>
       <c r="O173" t="s">
         <v>24</v>
@@ -10947,7 +10977,7 @@
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B174" t="s">
         <v>71</v>
@@ -10956,22 +10986,22 @@
         <v>17</v>
       </c>
       <c r="D174" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="E174" t="s">
         <v>109</v>
       </c>
       <c r="F174" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="G174" t="s">
         <v>109</v>
       </c>
       <c r="H174" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="I174" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="J174">
         <v>2</v>
@@ -10994,31 +11024,31 @@
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="B175" t="s">
-        <v>71</v>
+        <v>180</v>
       </c>
       <c r="C175" t="s">
         <v>17</v>
       </c>
       <c r="D175" t="s">
-        <v>219</v>
+        <v>652</v>
       </c>
       <c r="E175" t="s">
         <v>109</v>
       </c>
       <c r="F175" t="s">
-        <v>219</v>
+        <v>652</v>
       </c>
       <c r="G175" t="s">
         <v>109</v>
       </c>
       <c r="H175" t="s">
-        <v>219</v>
+        <v>652</v>
       </c>
       <c r="I175" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="J175">
         <v>2</v>
@@ -11033,7 +11063,7 @@
         <v>22</v>
       </c>
       <c r="N175" t="s">
-        <v>75</v>
+        <v>183</v>
       </c>
       <c r="O175" t="s">
         <v>24</v>
@@ -11041,13 +11071,13 @@
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
+        <v>653</v>
+      </c>
+      <c r="B176" t="s">
+        <v>654</v>
+      </c>
+      <c r="C176" t="s">
         <v>655</v>
-      </c>
-      <c r="B176" t="s">
-        <v>180</v>
-      </c>
-      <c r="C176" t="s">
-        <v>17</v>
       </c>
       <c r="D176" t="s">
         <v>656</v>
@@ -11062,25 +11092,25 @@
         <v>109</v>
       </c>
       <c r="H176" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I176" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="J176">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="K176" t="s">
         <v>21</v>
       </c>
       <c r="L176">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="M176" t="s">
         <v>22</v>
       </c>
       <c r="N176" t="s">
-        <v>183</v>
+        <v>654</v>
       </c>
       <c r="O176" t="s">
         <v>24</v>
@@ -11088,46 +11118,46 @@
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B177" t="s">
-        <v>658</v>
+        <v>448</v>
       </c>
       <c r="C177" t="s">
-        <v>659</v>
+        <v>17</v>
       </c>
       <c r="D177" t="s">
         <v>660</v>
       </c>
       <c r="E177" t="s">
-        <v>109</v>
+        <v>475</v>
       </c>
       <c r="F177" t="s">
         <v>660</v>
       </c>
       <c r="G177" t="s">
-        <v>109</v>
+        <v>475</v>
       </c>
       <c r="H177" t="s">
+        <v>660</v>
+      </c>
+      <c r="I177" t="s">
         <v>661</v>
       </c>
-      <c r="I177" t="s">
-        <v>662</v>
-      </c>
       <c r="J177">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="K177" t="s">
         <v>21</v>
       </c>
       <c r="L177">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="M177" t="s">
         <v>22</v>
       </c>
       <c r="N177" t="s">
-        <v>658</v>
+        <v>451</v>
       </c>
       <c r="O177" t="s">
         <v>24</v>
@@ -11135,46 +11165,46 @@
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
+        <v>662</v>
+      </c>
+      <c r="B178" t="s">
         <v>663</v>
       </c>
-      <c r="B178" t="s">
-        <v>448</v>
-      </c>
       <c r="C178" t="s">
-        <v>17</v>
+        <v>664</v>
       </c>
       <c r="D178" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E178" t="s">
-        <v>475</v>
+        <v>666</v>
       </c>
       <c r="F178" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="G178" t="s">
-        <v>475</v>
+        <v>666</v>
       </c>
       <c r="H178" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="I178" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="J178">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K178" t="s">
         <v>21</v>
       </c>
       <c r="L178">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="M178" t="s">
         <v>22</v>
       </c>
       <c r="N178" t="s">
-        <v>451</v>
+        <v>663</v>
       </c>
       <c r="O178" t="s">
         <v>24</v>
@@ -11182,34 +11212,34 @@
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="B179" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="C179" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="D179" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="E179" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="F179" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="G179" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="H179" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="I179" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="J179">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K179" t="s">
         <v>21</v>
@@ -11221,7 +11251,7 @@
         <v>22</v>
       </c>
       <c r="N179" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="O179" t="s">
         <v>24</v>
@@ -11229,31 +11259,31 @@
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
+        <v>676</v>
+      </c>
+      <c r="B180" t="s">
+        <v>670</v>
+      </c>
+      <c r="C180" t="s">
+        <v>671</v>
+      </c>
+      <c r="D180" t="s">
+        <v>677</v>
+      </c>
+      <c r="E180" t="s">
         <v>673</v>
       </c>
-      <c r="B180" t="s">
-        <v>674</v>
-      </c>
-      <c r="C180" t="s">
-        <v>675</v>
-      </c>
-      <c r="D180" t="s">
-        <v>676</v>
-      </c>
-      <c r="E180" t="s">
+      <c r="F180" t="s">
         <v>677</v>
       </c>
-      <c r="F180" t="s">
-        <v>676</v>
-      </c>
       <c r="G180" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="H180" t="s">
         <v>678</v>
       </c>
       <c r="I180" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="J180">
         <v>4</v>
@@ -11268,7 +11298,7 @@
         <v>22</v>
       </c>
       <c r="N180" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="O180" t="s">
         <v>24</v>
@@ -11276,31 +11306,31 @@
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
+        <v>679</v>
+      </c>
+      <c r="B181" t="s">
         <v>680</v>
       </c>
-      <c r="B181" t="s">
-        <v>674</v>
-      </c>
       <c r="C181" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="D181" t="s">
-        <v>681</v>
+        <v>574</v>
       </c>
       <c r="E181" t="s">
-        <v>677</v>
+        <v>588</v>
       </c>
       <c r="F181" t="s">
-        <v>681</v>
+        <v>574</v>
       </c>
       <c r="G181" t="s">
-        <v>677</v>
+        <v>588</v>
       </c>
       <c r="H181" t="s">
         <v>682</v>
       </c>
       <c r="I181" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="J181">
         <v>4</v>
@@ -11309,13 +11339,13 @@
         <v>21</v>
       </c>
       <c r="L181">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="M181" t="s">
         <v>22</v>
       </c>
       <c r="N181" t="s">
-        <v>674</v>
+        <v>684</v>
       </c>
       <c r="O181" t="s">
         <v>24</v>
@@ -11323,46 +11353,46 @@
     </row>
     <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="B182" t="s">
-        <v>684</v>
+        <v>268</v>
       </c>
       <c r="C182" t="s">
-        <v>685</v>
+        <v>269</v>
       </c>
       <c r="D182" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="E182" t="s">
-        <v>592</v>
+        <v>686</v>
       </c>
       <c r="F182" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="G182" t="s">
-        <v>592</v>
+        <v>686</v>
       </c>
       <c r="H182" t="s">
+        <v>687</v>
+      </c>
+      <c r="I182" t="s">
         <v>686</v>
       </c>
-      <c r="I182" t="s">
-        <v>687</v>
-      </c>
       <c r="J182">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K182" t="s">
         <v>21</v>
       </c>
       <c r="L182">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="M182" t="s">
         <v>22</v>
       </c>
       <c r="N182" t="s">
-        <v>688</v>
+        <v>268</v>
       </c>
       <c r="O182" t="s">
         <v>24</v>
@@ -11370,46 +11400,46 @@
     </row>
     <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
+        <v>688</v>
+      </c>
+      <c r="B183" t="s">
         <v>689</v>
       </c>
-      <c r="B183" t="s">
-        <v>268</v>
-      </c>
       <c r="C183" t="s">
-        <v>269</v>
+        <v>690</v>
       </c>
       <c r="D183" t="s">
-        <v>578</v>
+        <v>691</v>
       </c>
       <c r="E183" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="F183" t="s">
-        <v>578</v>
+        <v>691</v>
       </c>
       <c r="G183" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="H183" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="I183" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="J183">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K183" t="s">
         <v>21</v>
       </c>
       <c r="L183">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="M183" t="s">
         <v>22</v>
       </c>
       <c r="N183" t="s">
-        <v>268</v>
+        <v>695</v>
       </c>
       <c r="O183" t="s">
         <v>24</v>
@@ -11417,46 +11447,46 @@
     </row>
     <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="B184" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C184" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="D184" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="E184" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="F184" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="G184" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="H184" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="I184" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="J184">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K184" t="s">
         <v>21</v>
       </c>
       <c r="L184">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="M184" t="s">
         <v>22</v>
       </c>
       <c r="N184" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="O184" t="s">
         <v>24</v>
@@ -11464,28 +11494,28 @@
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="B185" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="C185" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="D185" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="E185" t="s">
         <v>704</v>
       </c>
       <c r="F185" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="G185" t="s">
         <v>704</v>
       </c>
       <c r="H185" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="I185" t="s">
         <v>705</v>
@@ -11503,7 +11533,7 @@
         <v>22</v>
       </c>
       <c r="N185" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="O185" t="s">
         <v>24</v>
@@ -11511,46 +11541,46 @@
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
+        <v>706</v>
+      </c>
+      <c r="B186" t="s">
+        <v>670</v>
+      </c>
+      <c r="C186" t="s">
+        <v>671</v>
+      </c>
+      <c r="D186" t="s">
+        <v>67</v>
+      </c>
+      <c r="E186" t="s">
         <v>707</v>
       </c>
-      <c r="B186" t="s">
-        <v>701</v>
-      </c>
-      <c r="C186" t="s">
-        <v>702</v>
-      </c>
-      <c r="D186" t="s">
-        <v>703</v>
-      </c>
-      <c r="E186" t="s">
+      <c r="F186" t="s">
+        <v>67</v>
+      </c>
+      <c r="G186" t="s">
+        <v>707</v>
+      </c>
+      <c r="H186" t="s">
         <v>708</v>
-      </c>
-      <c r="F186" t="s">
-        <v>703</v>
-      </c>
-      <c r="G186" t="s">
-        <v>708</v>
-      </c>
-      <c r="H186" t="s">
-        <v>703</v>
       </c>
       <c r="I186" t="s">
         <v>709</v>
       </c>
       <c r="J186">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K186" t="s">
         <v>21</v>
       </c>
       <c r="L186">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="M186" t="s">
         <v>22</v>
       </c>
       <c r="N186" t="s">
-        <v>706</v>
+        <v>670</v>
       </c>
       <c r="O186" t="s">
         <v>24</v>
@@ -11561,28 +11591,28 @@
         <v>710</v>
       </c>
       <c r="B187" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="C187" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="D187" t="s">
-        <v>67</v>
+        <v>247</v>
       </c>
       <c r="E187" t="s">
+        <v>707</v>
+      </c>
+      <c r="F187" t="s">
+        <v>247</v>
+      </c>
+      <c r="G187" t="s">
+        <v>707</v>
+      </c>
+      <c r="H187" t="s">
         <v>711</v>
       </c>
-      <c r="F187" t="s">
-        <v>67</v>
-      </c>
-      <c r="G187" t="s">
-        <v>711</v>
-      </c>
-      <c r="H187" t="s">
-        <v>712</v>
-      </c>
       <c r="I187" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="J187">
         <v>4</v>
@@ -11597,7 +11627,7 @@
         <v>22</v>
       </c>
       <c r="N187" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="O187" t="s">
         <v>24</v>
@@ -11605,28 +11635,28 @@
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B188" t="s">
-        <v>674</v>
+        <v>538</v>
       </c>
       <c r="C188" t="s">
-        <v>675</v>
+        <v>539</v>
       </c>
       <c r="D188" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="E188" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="F188" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="G188" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="H188" t="s">
-        <v>715</v>
+        <v>540</v>
       </c>
       <c r="I188" t="s">
         <v>713</v>
@@ -11641,10 +11671,10 @@
         <v>0</v>
       </c>
       <c r="M188" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="N188" t="s">
-        <v>674</v>
+        <v>538</v>
       </c>
       <c r="O188" t="s">
         <v>24</v>
@@ -11652,46 +11682,46 @@
     </row>
     <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
+        <v>714</v>
+      </c>
+      <c r="B189" t="s">
+        <v>715</v>
+      </c>
+      <c r="C189" t="s">
         <v>716</v>
       </c>
-      <c r="B189" t="s">
-        <v>538</v>
-      </c>
-      <c r="C189" t="s">
-        <v>539</v>
-      </c>
       <c r="D189" t="s">
-        <v>225</v>
+        <v>673</v>
       </c>
       <c r="E189" t="s">
         <v>717</v>
       </c>
       <c r="F189" t="s">
-        <v>225</v>
+        <v>673</v>
       </c>
       <c r="G189" t="s">
         <v>717</v>
       </c>
       <c r="H189" t="s">
-        <v>540</v>
+        <v>718</v>
       </c>
       <c r="I189" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="J189">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="K189" t="s">
         <v>21</v>
       </c>
       <c r="L189">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="M189" t="s">
         <v>34</v>
       </c>
       <c r="N189" t="s">
-        <v>538</v>
+        <v>715</v>
       </c>
       <c r="O189" t="s">
         <v>24</v>
@@ -11699,46 +11729,46 @@
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="B190" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="C190" t="s">
-        <v>720</v>
+        <v>115</v>
       </c>
       <c r="D190" t="s">
-        <v>677</v>
+        <v>722</v>
       </c>
       <c r="E190" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="F190" t="s">
-        <v>677</v>
+        <v>722</v>
       </c>
       <c r="G190" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="H190" t="s">
         <v>722</v>
       </c>
       <c r="I190" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="J190">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="K190" t="s">
         <v>21</v>
       </c>
       <c r="L190">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="M190" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="N190" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="O190" t="s">
         <v>24</v>
@@ -11746,31 +11776,31 @@
     </row>
     <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="B191" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="C191" t="s">
         <v>115</v>
       </c>
       <c r="D191" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="E191" t="s">
+        <v>728</v>
+      </c>
+      <c r="F191" t="s">
         <v>727</v>
       </c>
-      <c r="F191" t="s">
-        <v>726</v>
-      </c>
       <c r="G191" t="s">
+        <v>728</v>
+      </c>
+      <c r="H191" t="s">
         <v>727</v>
       </c>
-      <c r="H191" t="s">
-        <v>726</v>
-      </c>
       <c r="I191" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="J191">
         <v>2</v>
@@ -11779,13 +11809,13 @@
         <v>21</v>
       </c>
       <c r="L191">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="M191" t="s">
         <v>22</v>
       </c>
       <c r="N191" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="O191" t="s">
         <v>24</v>
@@ -11796,7 +11826,7 @@
         <v>730</v>
       </c>
       <c r="B192" t="s">
-        <v>725</v>
+        <v>128</v>
       </c>
       <c r="C192" t="s">
         <v>115</v>
@@ -11826,13 +11856,13 @@
         <v>21</v>
       </c>
       <c r="L192">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="M192" t="s">
         <v>22</v>
       </c>
       <c r="N192" t="s">
-        <v>729</v>
+        <v>130</v>
       </c>
       <c r="O192" t="s">
         <v>24</v>
@@ -11843,28 +11873,28 @@
         <v>734</v>
       </c>
       <c r="B193" t="s">
-        <v>128</v>
+        <v>735</v>
       </c>
       <c r="C193" t="s">
-        <v>115</v>
+        <v>17</v>
       </c>
       <c r="D193" t="s">
-        <v>735</v>
+        <v>490</v>
       </c>
       <c r="E193" t="s">
+        <v>416</v>
+      </c>
+      <c r="F193" t="s">
+        <v>490</v>
+      </c>
+      <c r="G193" t="s">
+        <v>416</v>
+      </c>
+      <c r="H193" t="s">
+        <v>490</v>
+      </c>
+      <c r="I193" t="s">
         <v>736</v>
-      </c>
-      <c r="F193" t="s">
-        <v>735</v>
-      </c>
-      <c r="G193" t="s">
-        <v>736</v>
-      </c>
-      <c r="H193" t="s">
-        <v>735</v>
-      </c>
-      <c r="I193" t="s">
-        <v>737</v>
       </c>
       <c r="J193">
         <v>2</v>
@@ -11879,7 +11909,7 @@
         <v>22</v>
       </c>
       <c r="N193" t="s">
-        <v>130</v>
+        <v>737</v>
       </c>
       <c r="O193" t="s">
         <v>24</v>
@@ -11890,28 +11920,28 @@
         <v>738</v>
       </c>
       <c r="B194" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C194" t="s">
         <v>17</v>
       </c>
       <c r="D194" t="s">
-        <v>490</v>
+        <v>739</v>
       </c>
       <c r="E194" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F194" t="s">
-        <v>490</v>
+        <v>739</v>
       </c>
       <c r="G194" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H194" t="s">
-        <v>490</v>
+        <v>739</v>
       </c>
       <c r="I194" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="J194">
         <v>2</v>
@@ -11926,7 +11956,7 @@
         <v>22</v>
       </c>
       <c r="N194" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="O194" t="s">
         <v>24</v>
@@ -11934,31 +11964,31 @@
     </row>
     <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B195" t="s">
-        <v>739</v>
+        <v>134</v>
       </c>
       <c r="C195" t="s">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="D195" t="s">
-        <v>743</v>
+        <v>374</v>
       </c>
       <c r="E195" t="s">
         <v>415</v>
       </c>
       <c r="F195" t="s">
-        <v>743</v>
+        <v>374</v>
       </c>
       <c r="G195" t="s">
         <v>415</v>
       </c>
       <c r="H195" t="s">
-        <v>743</v>
+        <v>374</v>
       </c>
       <c r="I195" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="J195">
         <v>2</v>
@@ -11973,7 +12003,7 @@
         <v>22</v>
       </c>
       <c r="N195" t="s">
-        <v>741</v>
+        <v>138</v>
       </c>
       <c r="O195" t="s">
         <v>24</v>
@@ -11981,7 +12011,7 @@
     </row>
     <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B196" t="s">
         <v>134</v>
@@ -11990,22 +12020,22 @@
         <v>115</v>
       </c>
       <c r="D196" t="s">
-        <v>373</v>
+        <v>420</v>
       </c>
       <c r="E196" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F196" t="s">
-        <v>373</v>
+        <v>420</v>
       </c>
       <c r="G196" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H196" t="s">
-        <v>373</v>
+        <v>420</v>
       </c>
       <c r="I196" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="J196">
         <v>2</v>
@@ -12028,31 +12058,31 @@
     </row>
     <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="B197" t="s">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="C197" t="s">
-        <v>115</v>
+        <v>17</v>
       </c>
       <c r="D197" t="s">
-        <v>419</v>
+        <v>744</v>
       </c>
       <c r="E197" t="s">
-        <v>414</v>
+        <v>238</v>
       </c>
       <c r="F197" t="s">
-        <v>419</v>
+        <v>744</v>
       </c>
       <c r="G197" t="s">
-        <v>414</v>
+        <v>238</v>
       </c>
       <c r="H197" t="s">
-        <v>419</v>
+        <v>744</v>
       </c>
       <c r="I197" t="s">
-        <v>745</v>
+        <v>239</v>
       </c>
       <c r="J197">
         <v>2</v>
@@ -12067,7 +12097,7 @@
         <v>22</v>
       </c>
       <c r="N197" t="s">
-        <v>138</v>
+        <v>183</v>
       </c>
       <c r="O197" t="s">
         <v>24</v>
@@ -12075,31 +12105,31 @@
     </row>
     <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B198" t="s">
-        <v>180</v>
+        <v>55</v>
       </c>
       <c r="C198" t="s">
         <v>17</v>
       </c>
       <c r="D198" t="s">
-        <v>748</v>
+        <v>505</v>
       </c>
       <c r="E198" t="s">
-        <v>238</v>
+        <v>746</v>
       </c>
       <c r="F198" t="s">
-        <v>748</v>
+        <v>505</v>
       </c>
       <c r="G198" t="s">
-        <v>238</v>
+        <v>746</v>
       </c>
       <c r="H198" t="s">
-        <v>748</v>
+        <v>505</v>
       </c>
       <c r="I198" t="s">
-        <v>239</v>
+        <v>747</v>
       </c>
       <c r="J198">
         <v>2</v>
@@ -12114,7 +12144,7 @@
         <v>22</v>
       </c>
       <c r="N198" t="s">
-        <v>183</v>
+        <v>59</v>
       </c>
       <c r="O198" t="s">
         <v>24</v>
@@ -12122,31 +12152,31 @@
     </row>
     <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B199" t="s">
-        <v>55</v>
+        <v>180</v>
       </c>
       <c r="C199" t="s">
         <v>17</v>
       </c>
       <c r="D199" t="s">
-        <v>505</v>
+        <v>749</v>
       </c>
       <c r="E199" t="s">
         <v>750</v>
       </c>
       <c r="F199" t="s">
-        <v>505</v>
+        <v>749</v>
       </c>
       <c r="G199" t="s">
         <v>750</v>
       </c>
       <c r="H199" t="s">
-        <v>505</v>
+        <v>751</v>
       </c>
       <c r="I199" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="J199">
         <v>2</v>
@@ -12155,13 +12185,13 @@
         <v>21</v>
       </c>
       <c r="L199">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="M199" t="s">
         <v>22</v>
       </c>
       <c r="N199" t="s">
-        <v>59</v>
+        <v>183</v>
       </c>
       <c r="O199" t="s">
         <v>24</v>
@@ -12172,7 +12202,7 @@
         <v>752</v>
       </c>
       <c r="B200" t="s">
-        <v>180</v>
+        <v>55</v>
       </c>
       <c r="C200" t="s">
         <v>17</v>
@@ -12190,11 +12220,11 @@
         <v>754</v>
       </c>
       <c r="H200" t="s">
+        <v>753</v>
+      </c>
+      <c r="I200" t="s">
         <v>755</v>
       </c>
-      <c r="I200" t="s">
-        <v>754</v>
-      </c>
       <c r="J200">
         <v>2</v>
       </c>
@@ -12202,13 +12232,13 @@
         <v>21</v>
       </c>
       <c r="L200">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M200" t="s">
         <v>22</v>
       </c>
       <c r="N200" t="s">
-        <v>183</v>
+        <v>59</v>
       </c>
       <c r="O200" t="s">
         <v>24</v>
@@ -12219,28 +12249,28 @@
         <v>756</v>
       </c>
       <c r="B201" t="s">
-        <v>55</v>
+        <v>524</v>
       </c>
       <c r="C201" t="s">
-        <v>17</v>
+        <v>295</v>
       </c>
       <c r="D201" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="E201" t="s">
-        <v>758</v>
+        <v>212</v>
       </c>
       <c r="F201" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="G201" t="s">
-        <v>758</v>
+        <v>212</v>
       </c>
       <c r="H201" t="s">
         <v>757</v>
       </c>
       <c r="I201" t="s">
-        <v>759</v>
+        <v>212</v>
       </c>
       <c r="J201">
         <v>2</v>
@@ -12249,13 +12279,13 @@
         <v>21</v>
       </c>
       <c r="L201">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="M201" t="s">
         <v>22</v>
       </c>
       <c r="N201" t="s">
-        <v>59</v>
+        <v>524</v>
       </c>
       <c r="O201" t="s">
         <v>24</v>
@@ -12263,32 +12293,32 @@
     </row>
     <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B202" t="s">
-        <v>524</v>
+        <v>294</v>
       </c>
       <c r="C202" t="s">
         <v>295</v>
       </c>
       <c r="D202" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
       <c r="E202" t="s">
-        <v>212</v>
+        <v>760</v>
       </c>
       <c r="F202" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
       <c r="G202" t="s">
-        <v>212</v>
+        <v>760</v>
       </c>
       <c r="H202" t="s">
+        <v>759</v>
+      </c>
+      <c r="I202" t="s">
         <v>761</v>
       </c>
-      <c r="I202" t="s">
-        <v>212</v>
-      </c>
       <c r="J202">
         <v>2</v>
       </c>
@@ -12296,13 +12326,13 @@
         <v>21</v>
       </c>
       <c r="L202">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="M202" t="s">
         <v>22</v>
       </c>
       <c r="N202" t="s">
-        <v>524</v>
+        <v>297</v>
       </c>
       <c r="O202" t="s">
         <v>24</v>
@@ -12313,31 +12343,31 @@
         <v>762</v>
       </c>
       <c r="B203" t="s">
-        <v>294</v>
+        <v>763</v>
       </c>
       <c r="C203" t="s">
-        <v>295</v>
+        <v>764</v>
       </c>
       <c r="D203" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="E203" t="s">
-        <v>764</v>
+        <v>746</v>
       </c>
       <c r="F203" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="G203" t="s">
-        <v>764</v>
+        <v>746</v>
       </c>
       <c r="H203" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="I203" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="J203">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K203" t="s">
         <v>21</v>
@@ -12349,7 +12379,7 @@
         <v>22</v>
       </c>
       <c r="N203" t="s">
-        <v>297</v>
+        <v>763</v>
       </c>
       <c r="O203" t="s">
         <v>24</v>
@@ -12357,25 +12387,25 @@
     </row>
     <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="B204" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="C204" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="D204" t="s">
         <v>769</v>
       </c>
       <c r="E204" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="F204" t="s">
         <v>769</v>
       </c>
       <c r="G204" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="H204" t="s">
         <v>770</v>
@@ -12390,13 +12420,13 @@
         <v>21</v>
       </c>
       <c r="L204">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="M204" t="s">
         <v>22</v>
       </c>
       <c r="N204" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="O204" t="s">
         <v>24</v>
@@ -12407,31 +12437,31 @@
         <v>772</v>
       </c>
       <c r="B205" t="s">
-        <v>767</v>
+        <v>128</v>
       </c>
       <c r="C205" t="s">
-        <v>768</v>
+        <v>115</v>
       </c>
       <c r="D205" t="s">
         <v>773</v>
       </c>
       <c r="E205" t="s">
-        <v>758</v>
+        <v>518</v>
       </c>
       <c r="F205" t="s">
         <v>773</v>
       </c>
       <c r="G205" t="s">
-        <v>758</v>
+        <v>518</v>
       </c>
       <c r="H205" t="s">
+        <v>773</v>
+      </c>
+      <c r="I205" t="s">
         <v>774</v>
       </c>
-      <c r="I205" t="s">
-        <v>775</v>
-      </c>
       <c r="J205">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K205" t="s">
         <v>21</v>
@@ -12443,7 +12473,7 @@
         <v>22</v>
       </c>
       <c r="N205" t="s">
-        <v>767</v>
+        <v>130</v>
       </c>
       <c r="O205" t="s">
         <v>24</v>
@@ -12451,46 +12481,46 @@
     </row>
     <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
+        <v>775</v>
+      </c>
+      <c r="B206" t="s">
         <v>776</v>
       </c>
-      <c r="B206" t="s">
-        <v>128</v>
-      </c>
       <c r="C206" t="s">
-        <v>115</v>
+        <v>777</v>
       </c>
       <c r="D206" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="E206" t="s">
-        <v>518</v>
+        <v>779</v>
       </c>
       <c r="F206" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="G206" t="s">
-        <v>518</v>
+        <v>779</v>
       </c>
       <c r="H206" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="I206" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="J206">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="K206" t="s">
         <v>21</v>
       </c>
       <c r="L206">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="M206" t="s">
         <v>22</v>
       </c>
       <c r="N206" t="s">
-        <v>130</v>
+        <v>782</v>
       </c>
       <c r="O206" t="s">
         <v>24</v>
@@ -12498,25 +12528,25 @@
     </row>
     <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="B207" t="s">
-        <v>780</v>
+        <v>670</v>
       </c>
       <c r="C207" t="s">
-        <v>781</v>
+        <v>671</v>
       </c>
       <c r="D207" t="s">
-        <v>782</v>
+        <v>485</v>
       </c>
       <c r="E207" t="s">
-        <v>783</v>
+        <v>32</v>
       </c>
       <c r="F207" t="s">
-        <v>782</v>
+        <v>485</v>
       </c>
       <c r="G207" t="s">
-        <v>783</v>
+        <v>32</v>
       </c>
       <c r="H207" t="s">
         <v>784</v>
@@ -12525,19 +12555,19 @@
         <v>785</v>
       </c>
       <c r="J207">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="K207" t="s">
         <v>21</v>
       </c>
       <c r="L207">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M207" t="s">
         <v>22</v>
       </c>
       <c r="N207" t="s">
-        <v>786</v>
+        <v>670</v>
       </c>
       <c r="O207" t="s">
         <v>24</v>
@@ -12545,31 +12575,31 @@
     </row>
     <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
+        <v>786</v>
+      </c>
+      <c r="B208" t="s">
         <v>787</v>
       </c>
-      <c r="B208" t="s">
-        <v>674</v>
-      </c>
       <c r="C208" t="s">
-        <v>675</v>
+        <v>788</v>
       </c>
       <c r="D208" t="s">
-        <v>485</v>
+        <v>72</v>
       </c>
       <c r="E208" t="s">
-        <v>32</v>
+        <v>613</v>
       </c>
       <c r="F208" t="s">
-        <v>485</v>
+        <v>72</v>
       </c>
       <c r="G208" t="s">
-        <v>32</v>
+        <v>613</v>
       </c>
       <c r="H208" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="I208" t="s">
-        <v>789</v>
+        <v>613</v>
       </c>
       <c r="J208">
         <v>4</v>
@@ -12581,10 +12611,10 @@
         <v>0</v>
       </c>
       <c r="M208" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="N208" t="s">
-        <v>674</v>
+        <v>787</v>
       </c>
       <c r="O208" t="s">
         <v>24</v>
@@ -12595,28 +12625,28 @@
         <v>790</v>
       </c>
       <c r="B209" t="s">
-        <v>134</v>
+        <v>524</v>
       </c>
       <c r="C209" t="s">
-        <v>115</v>
+        <v>295</v>
       </c>
       <c r="D209" t="s">
-        <v>331</v>
+        <v>791</v>
       </c>
       <c r="E209" t="s">
-        <v>339</v>
+        <v>247</v>
       </c>
       <c r="F209" t="s">
-        <v>331</v>
+        <v>791</v>
       </c>
       <c r="G209" t="s">
-        <v>339</v>
+        <v>247</v>
       </c>
       <c r="H209" t="s">
-        <v>331</v>
+        <v>792</v>
       </c>
       <c r="I209" t="s">
-        <v>340</v>
+        <v>247</v>
       </c>
       <c r="J209">
         <v>2</v>
@@ -12625,13 +12655,13 @@
         <v>21</v>
       </c>
       <c r="L209">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="M209" t="s">
         <v>22</v>
       </c>
       <c r="N209" t="s">
-        <v>138</v>
+        <v>524</v>
       </c>
       <c r="O209" t="s">
         <v>24</v>
@@ -12639,46 +12669,46 @@
     </row>
     <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="B210" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="C210" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="D210" t="s">
-        <v>72</v>
+        <v>796</v>
       </c>
       <c r="E210" t="s">
-        <v>617</v>
+        <v>457</v>
       </c>
       <c r="F210" t="s">
-        <v>72</v>
+        <v>796</v>
       </c>
       <c r="G210" t="s">
-        <v>617</v>
+        <v>457</v>
       </c>
       <c r="H210" t="s">
+        <v>796</v>
+      </c>
+      <c r="I210" t="s">
+        <v>797</v>
+      </c>
+      <c r="J210">
+        <v>2</v>
+      </c>
+      <c r="K210" t="s">
+        <v>21</v>
+      </c>
+      <c r="L210">
+        <v>90</v>
+      </c>
+      <c r="M210" t="s">
+        <v>22</v>
+      </c>
+      <c r="N210" t="s">
         <v>794</v>
-      </c>
-      <c r="I210" t="s">
-        <v>617</v>
-      </c>
-      <c r="J210">
-        <v>4</v>
-      </c>
-      <c r="K210" t="s">
-        <v>21</v>
-      </c>
-      <c r="L210">
-        <v>0</v>
-      </c>
-      <c r="M210" t="s">
-        <v>34</v>
-      </c>
-      <c r="N210" t="s">
-        <v>792</v>
       </c>
       <c r="O210" t="s">
         <v>24</v>
@@ -12686,31 +12716,31 @@
     </row>
     <row r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="B211" t="s">
-        <v>524</v>
+        <v>128</v>
       </c>
       <c r="C211" t="s">
-        <v>295</v>
+        <v>115</v>
       </c>
       <c r="D211" t="s">
         <v>796</v>
       </c>
       <c r="E211" t="s">
-        <v>247</v>
+        <v>799</v>
       </c>
       <c r="F211" t="s">
         <v>796</v>
       </c>
       <c r="G211" t="s">
-        <v>247</v>
+        <v>799</v>
       </c>
       <c r="H211" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="I211" t="s">
-        <v>247</v>
+        <v>800</v>
       </c>
       <c r="J211">
         <v>2</v>
@@ -12719,13 +12749,13 @@
         <v>21</v>
       </c>
       <c r="L211">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M211" t="s">
         <v>22</v>
       </c>
       <c r="N211" t="s">
-        <v>524</v>
+        <v>130</v>
       </c>
       <c r="O211" t="s">
         <v>24</v>
@@ -12733,31 +12763,31 @@
     </row>
     <row r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="B212" t="s">
-        <v>799</v>
+        <v>333</v>
       </c>
       <c r="C212" t="s">
-        <v>800</v>
+        <v>115</v>
       </c>
       <c r="D212" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="E212" t="s">
-        <v>457</v>
+        <v>803</v>
       </c>
       <c r="F212" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="G212" t="s">
-        <v>457</v>
+        <v>803</v>
       </c>
       <c r="H212" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="I212" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="J212">
         <v>2</v>
@@ -12772,7 +12802,7 @@
         <v>22</v>
       </c>
       <c r="N212" t="s">
-        <v>799</v>
+        <v>337</v>
       </c>
       <c r="O212" t="s">
         <v>24</v>
@@ -12780,48 +12810,189 @@
     </row>
     <row r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
+        <v>805</v>
+      </c>
+      <c r="B213" t="s">
+        <v>367</v>
+      </c>
+      <c r="C213" t="s">
+        <v>368</v>
+      </c>
+      <c r="D213" t="s">
+        <v>806</v>
+      </c>
+      <c r="E213" t="s">
         <v>803</v>
       </c>
-      <c r="B213" t="s">
-        <v>128</v>
-      </c>
-      <c r="C213" t="s">
-        <v>115</v>
-      </c>
-      <c r="D213" t="s">
-        <v>801</v>
-      </c>
-      <c r="E213" t="s">
-        <v>804</v>
-      </c>
       <c r="F213" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="G213" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H213" t="s">
-        <v>801</v>
+        <v>807</v>
       </c>
       <c r="I213" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="J213">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K213" t="s">
         <v>21</v>
       </c>
       <c r="L213">
+        <v>180</v>
+      </c>
+      <c r="M213" t="s">
+        <v>22</v>
+      </c>
+      <c r="N213" t="s">
+        <v>367</v>
+      </c>
+      <c r="O213" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>809</v>
+      </c>
+      <c r="B214" t="s">
+        <v>71</v>
+      </c>
+      <c r="C214" t="s">
+        <v>17</v>
+      </c>
+      <c r="D214" t="s">
+        <v>32</v>
+      </c>
+      <c r="E214" t="s">
+        <v>172</v>
+      </c>
+      <c r="F214" t="s">
+        <v>32</v>
+      </c>
+      <c r="G214" t="s">
+        <v>172</v>
+      </c>
+      <c r="H214" t="s">
+        <v>32</v>
+      </c>
+      <c r="I214" t="s">
+        <v>174</v>
+      </c>
+      <c r="J214">
+        <v>2</v>
+      </c>
+      <c r="K214" t="s">
+        <v>21</v>
+      </c>
+      <c r="L214">
         <v>90</v>
       </c>
-      <c r="M213" t="s">
-        <v>22</v>
-      </c>
-      <c r="N213" t="s">
-        <v>130</v>
-      </c>
-      <c r="O213" t="s">
+      <c r="M214" t="s">
+        <v>22</v>
+      </c>
+      <c r="N214" t="s">
+        <v>75</v>
+      </c>
+      <c r="O214" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>810</v>
+      </c>
+      <c r="B215" t="s">
+        <v>71</v>
+      </c>
+      <c r="C215" t="s">
+        <v>17</v>
+      </c>
+      <c r="D215" t="s">
+        <v>811</v>
+      </c>
+      <c r="E215" t="s">
+        <v>389</v>
+      </c>
+      <c r="F215" t="s">
+        <v>811</v>
+      </c>
+      <c r="G215" t="s">
+        <v>389</v>
+      </c>
+      <c r="H215" t="s">
+        <v>812</v>
+      </c>
+      <c r="I215" t="s">
+        <v>389</v>
+      </c>
+      <c r="J215">
+        <v>2</v>
+      </c>
+      <c r="K215" t="s">
+        <v>21</v>
+      </c>
+      <c r="L215">
+        <v>0</v>
+      </c>
+      <c r="M215" t="s">
+        <v>22</v>
+      </c>
+      <c r="N215" t="s">
+        <v>75</v>
+      </c>
+      <c r="O215" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>813</v>
+      </c>
+      <c r="B216" t="s">
+        <v>276</v>
+      </c>
+      <c r="C216" t="s">
+        <v>277</v>
+      </c>
+      <c r="D216" t="s">
+        <v>814</v>
+      </c>
+      <c r="E216" t="s">
+        <v>279</v>
+      </c>
+      <c r="F216" t="s">
+        <v>814</v>
+      </c>
+      <c r="G216" t="s">
+        <v>279</v>
+      </c>
+      <c r="H216" t="s">
+        <v>815</v>
+      </c>
+      <c r="I216" t="s">
+        <v>281</v>
+      </c>
+      <c r="J216">
+        <v>6</v>
+      </c>
+      <c r="K216" t="s">
+        <v>21</v>
+      </c>
+      <c r="L216">
+        <v>0</v>
+      </c>
+      <c r="M216" t="s">
+        <v>22</v>
+      </c>
+      <c r="N216" t="s">
+        <v>282</v>
+      </c>
+      <c r="O216" t="s">
         <v>24</v>
       </c>
     </row>
